--- a/final_report.xlsx
+++ b/final_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ginger/Desktop/ad-detection-challenge-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11652A68-A9FA-9B4E-BE44-1000557195A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AF6915-98F4-0F4F-8B71-F4CA7A64410D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8340" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{B887A219-EDC8-C440-97F0-01C13C576A91}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>Group</t>
   </si>
@@ -50,18 +50,6 @@
   </si>
   <si>
     <t>GPU</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Demo. Details</t>
-  </si>
-  <si>
-    <t>Scanner Info.</t>
-  </si>
-  <si>
-    <t>APOE</t>
   </si>
   <si>
     <t>VG1</t>
@@ -123,18 +111,6 @@
     <t>indicates the type of GPU used.</t>
   </si>
   <si>
-    <t xml:space="preserve">indicates – whether the T1w scans were used by the model, along with descriptions of any further processing </t>
-  </si>
-  <si>
-    <t>performed on the images before being used for training.</t>
-  </si>
-  <si>
-    <t>Indicates whether the model used any scanner information for training. If not, put N/A.</t>
-  </si>
-  <si>
-    <t>indicates whether the model used APOE genotype values for training. If not, put N/A.</t>
-  </si>
-  <si>
     <t>VG 1-5</t>
   </si>
   <si>
@@ -142,9 +118,6 @@
   </si>
   <si>
     <t>indicates the size of the model.</t>
-  </si>
-  <si>
-    <t>indicate whether the model used any demographics for training. If not, put N/A.</t>
   </si>
   <si>
     <r>
@@ -218,12 +191,36 @@
       <t>score must be reported</t>
     </r>
   </si>
+  <si>
+    <t>Used Demographic Info</t>
+  </si>
+  <si>
+    <t>Used APOE Info</t>
+  </si>
+  <si>
+    <t>Used Scanner Info</t>
+  </si>
+  <si>
+    <t>Used Images</t>
+  </si>
+  <si>
+    <t>indicates whether the T1w scans were used to train  the model (0  -  NO, 1 - YES).</t>
+  </si>
+  <si>
+    <t>Indicates whether the model used any scanner information for training (0 - NO, 1- YES).</t>
+  </si>
+  <si>
+    <t>indicates whether  demographic data were used to train the model (0 - NO, 1- YES).</t>
+  </si>
+  <si>
+    <t>indicates whether APOE genotype values were used to train the model (0 - NO, 1- YES).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -281,14 +278,6 @@
       <name val="Calibri (Body)"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -300,6 +289,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -457,61 +461,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,23 +829,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FF4B2A-D8A3-AA4A-AFC2-EBFE10367E7C}">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AA4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" customWidth="1"/>
-    <col min="7" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" customWidth="1"/>
-    <col min="9" max="9" width="5.1640625" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
     <col min="10" max="10" width="3.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.83203125" customWidth="1"/>
     <col min="12" max="12" width="3.5" bestFit="1" customWidth="1"/>
@@ -864,422 +867,331 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:27" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:27" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
+      <c r="S2" s="22"/>
+      <c r="T2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
+      <c r="W2" s="22"/>
+      <c r="X2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4" t="s">
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4" t="s">
+      <c r="AA2" s="23"/>
+    </row>
+    <row r="3" spans="1:27" ht="50" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4" t="s">
+      <c r="K3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="12"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="14"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="s">
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="E8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" s="5"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" ht="50" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="24" t="s">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="9" t="s">
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="E10" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="E11" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="E12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="15"/>
-    </row>
-    <row r="5" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J5" s="17"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="18"/>
-    </row>
-    <row r="6" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="D8" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="D9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="D10" s="20" t="s">
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="E13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="D11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="D12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="D13" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="D14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
+    </row>
+    <row r="14" spans="1:27" ht="24" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:27" ht="24" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="D15" s="20" t="s">
+      <c r="A15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="E15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:27" ht="24" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="D16" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="16"/>
+      <c r="A16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="E16" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="D17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="3"/>
+      <c r="A17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="E17" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="D18" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="3"/>
+      <c r="A18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="E18" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="D19" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="3"/>
+      <c r="A19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="20"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="20" t="s">
-        <v>34</v>
-      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
@@ -1288,7 +1200,6 @@
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/final_report.xlsx
+++ b/final_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ginger/Desktop/ad-detection-challenge-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AF6915-98F4-0F4F-8B71-F4CA7A64410D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A1CE79-E72A-B543-A0E8-FD95317A5236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{B887A219-EDC8-C440-97F0-01C13C576A91}"/>
+    <workbookView xWindow="4520" yWindow="1020" windowWidth="28040" windowHeight="17440" xr2:uid="{B887A219-EDC8-C440-97F0-01C13C576A91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>Group</t>
   </si>
@@ -192,16 +192,10 @@
     </r>
   </si>
   <si>
-    <t>Used Demographic Info</t>
-  </si>
-  <si>
-    <t>Used APOE Info</t>
-  </si>
-  <si>
-    <t>Used Scanner Info</t>
-  </si>
-  <si>
-    <t>Used Images</t>
+    <t>Used_Demographic_Info</t>
+  </si>
+  <si>
+    <t>Used_Scanner_Info</t>
   </si>
   <si>
     <t>indicates whether the T1w scans were used to train  the model (0  -  NO, 1 - YES).</t>
@@ -214,13 +208,22 @@
   </si>
   <si>
     <t>indicates whether APOE genotype values were used to train the model (0 - NO, 1- YES).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Used_Images</t>
+  </si>
+  <si>
+    <t>Used_APOE_Info</t>
+  </si>
+  <si>
+    <t>Used_Images</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -305,6 +308,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -461,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -515,6 +526,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FF4B2A-D8A3-AA4A-AFC2-EBFE10367E7C}">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" zoomScalePageLayoutView="87" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -841,12 +861,12 @@
     <col min="2" max="2" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" customWidth="1"/>
-    <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
     <col min="11" max="11" width="2.83203125" customWidth="1"/>
     <col min="12" max="12" width="3.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.6640625" customWidth="1"/>
@@ -880,20 +900,20 @@
       <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="21" t="s">
+      <c r="H2" s="25" t="s">
         <v>28</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>5</v>
@@ -1050,7 +1070,7 @@
       <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1059,14 +1079,14 @@
         <v>1</v>
       </c>
       <c r="B8" s="16"/>
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1075,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1084,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1093,17 +1113,17 @@
         <v>4</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="E12" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B13" s="16"/>
-      <c r="E13" s="16" t="s">
-        <v>31</v>
+      <c r="F13" s="16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="24" x14ac:dyDescent="0.3">
@@ -1111,34 +1131,31 @@
         <v>27</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="E14" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="16"/>
-      <c r="E15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B16" s="16"/>
-      <c r="E16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
@@ -1147,10 +1164,9 @@
         <v>21</v>
       </c>
       <c r="B17" s="16"/>
-      <c r="E17" s="16" t="s">
+      <c r="F17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
@@ -1159,10 +1175,9 @@
         <v>10</v>
       </c>
       <c r="B18" s="16"/>
-      <c r="E18" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
@@ -1172,10 +1187,9 @@
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="3"/>
-      <c r="E19" s="16" t="s">
+      <c r="F19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>

--- a/final_report.xlsx
+++ b/final_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ginger/Desktop/ad-detection-challenge-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A1CE79-E72A-B543-A0E8-FD95317A5236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C234A5-750B-AA4F-B07C-3339C4C545D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="1020" windowWidth="28040" windowHeight="17440" xr2:uid="{B887A219-EDC8-C440-97F0-01C13C576A91}"/>
+    <workbookView xWindow="8260" yWindow="780" windowWidth="28040" windowHeight="17440" xr2:uid="{B887A219-EDC8-C440-97F0-01C13C576A91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>Group</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Model Param.</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>GPU</t>
@@ -192,12 +189,6 @@
     </r>
   </si>
   <si>
-    <t>Used_Demographic_Info</t>
-  </si>
-  <si>
-    <t>Used_Scanner_Info</t>
-  </si>
-  <si>
     <t>indicates whether the T1w scans were used to train  the model (0  -  NO, 1 - YES).</t>
   </si>
   <si>
@@ -210,13 +201,19 @@
     <t>indicates whether APOE genotype values were used to train the model (0 - NO, 1- YES).</t>
   </si>
   <si>
-    <t xml:space="preserve">  Used_Images</t>
-  </si>
-  <si>
-    <t>Used_APOE_Info</t>
-  </si>
-  <si>
-    <t>Used_Images</t>
+    <t>UsedDemographicInfo</t>
+  </si>
+  <si>
+    <t>UsedScannerInfo</t>
+  </si>
+  <si>
+    <t>UsedAPOEInfo</t>
+  </si>
+  <si>
+    <t>UsedImages</t>
+  </si>
+  <si>
+    <t>TIME</t>
   </si>
 </sst>
 </file>
@@ -519,21 +516,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,7 +849,7 @@
   <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" zoomScalePageLayoutView="87" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -860,34 +857,33 @@
     <col min="1" max="1" width="5.1640625" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" customWidth="1"/>
-    <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="2.5" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
     <col min="10" max="10" width="2.6640625" customWidth="1"/>
-    <col min="11" max="11" width="2.83203125" customWidth="1"/>
-    <col min="12" max="12" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="2.83203125" customWidth="1"/>
     <col min="13" max="13" width="2.6640625" customWidth="1"/>
-    <col min="14" max="14" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.1640625" customWidth="1"/>
     <col min="15" max="15" width="2.6640625" customWidth="1"/>
-    <col min="16" max="16" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3" customWidth="1"/>
     <col min="17" max="17" width="2.83203125" customWidth="1"/>
-    <col min="18" max="18" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3" customWidth="1"/>
     <col min="19" max="19" width="2.6640625" customWidth="1"/>
-    <col min="20" max="20" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.5" customWidth="1"/>
     <col min="21" max="21" width="2.6640625" customWidth="1"/>
-    <col min="22" max="22" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3" customWidth="1"/>
     <col min="23" max="23" width="2.6640625" customWidth="1"/>
-    <col min="24" max="24" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.83203125" customWidth="1"/>
     <col min="25" max="25" width="2.6640625" customWidth="1"/>
-    <col min="26" max="26" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.83203125" customWidth="1"/>
     <col min="27" max="27" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:27" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="22" customFormat="1" ht="50" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -897,60 +893,60 @@
       <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="22" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="O2" s="25"/>
+      <c r="P2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22" t="s">
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22" t="s">
+      <c r="S2" s="25"/>
+      <c r="T2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="U2" s="25"/>
+      <c r="V2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22" t="s">
+      <c r="W2" s="25"/>
+      <c r="X2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22" t="s">
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA2" s="23"/>
+      <c r="AA2" s="26"/>
     </row>
     <row r="3" spans="1:27" ht="50" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
@@ -963,58 +959,58 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T3" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V3" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X3" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z3" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1070,8 +1066,8 @@
       <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>15</v>
+      <c r="E7" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
@@ -1079,15 +1075,15 @@
         <v>1</v>
       </c>
       <c r="B8" s="16"/>
-      <c r="F8" s="16" t="s">
-        <v>17</v>
+      <c r="E8" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="F9" t="s">
-        <v>18</v>
+      <c r="E9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
@@ -1095,100 +1091,100 @@
         <v>2</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="F10" s="16" t="s">
-        <v>23</v>
+      <c r="E10" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="F11" s="16" t="s">
-        <v>19</v>
+      <c r="E11" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="F12" s="16" t="s">
-        <v>20</v>
+      <c r="E12" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="16"/>
-      <c r="F13" s="16" t="s">
-        <v>29</v>
+      <c r="E13" s="16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="F14" s="16" t="s">
-        <v>31</v>
+      <c r="E14" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B15" s="16"/>
-      <c r="F15" s="16" t="s">
-        <v>30</v>
+      <c r="E15" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="16"/>
-      <c r="F16" s="16" t="s">
-        <v>32</v>
+      <c r="E16" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="16"/>
-      <c r="F17" s="16" t="s">
-        <v>26</v>
+      <c r="E17" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="16"/>
-      <c r="F18" s="16" t="s">
-        <v>24</v>
+      <c r="E18" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="3"/>
-      <c r="F19" s="16" t="s">
-        <v>25</v>
+      <c r="E19" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>

--- a/final_report.xlsx
+++ b/final_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ginger/Desktop/ad-detection-challenge-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C234A5-750B-AA4F-B07C-3339C4C545D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC98BCF-6F96-3041-9076-48FA3E514408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="780" windowWidth="28040" windowHeight="17440" xr2:uid="{B887A219-EDC8-C440-97F0-01C13C576A91}"/>
+    <workbookView xWindow="2900" yWindow="1580" windowWidth="28040" windowHeight="17440" xr2:uid="{B887A219-EDC8-C440-97F0-01C13C576A91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
     <t>UsedImages</t>
   </si>
   <si>
-    <t>TIME</t>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -530,7 +530,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,10 +852,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FF4B2A-D8A3-AA4A-AFC2-EBFE10367E7C}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" zoomScalePageLayoutView="87" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,12 +866,12 @@
     <col min="1" max="1" width="5.1640625" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="2.5" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
     <col min="10" max="10" width="2.6640625" customWidth="1"/>
     <col min="11" max="12" width="2.83203125" customWidth="1"/>
     <col min="13" max="13" width="2.6640625" customWidth="1"/>
@@ -883,7 +892,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:27" s="22" customFormat="1" ht="50" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -893,7 +902,7 @@
       <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="24" t="s">
@@ -902,13 +911,13 @@
       <c r="F2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="27" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="25" t="s">
@@ -1212,7 +1221,7 @@
     <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>